--- a/src/test/resources/testdata/testdatamain1.xlsx
+++ b/src/test/resources/testdata/testdatamain1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripgain-my.sharepoint.com/personal/snehalatha_tripgain_com/Documents/Documents/EntireTestCases_automation/Auto/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="13_ncr:1_{0C0AB5F6-D519-43B2-A2FB-4E633F4E03BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA40760D-9183-49D9-B278-E4D06756C472}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="13_ncr:1_{0C0AB5F6-D519-43B2-A2FB-4E633F4E03BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F000DF9D-13A7-494E-94F3-213D1E02B010}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="184" activeTab="191" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="8170" firstSheet="54" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_119" sheetId="2" r:id="rId1"/>
@@ -206,12 +206,25 @@
     <sheet name="TC_94" sheetId="200" r:id="rId191"/>
     <sheet name="TC_95" sheetId="201" r:id="rId192"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="239">
   <si>
     <t>Origin</t>
   </si>
@@ -861,9 +874,6 @@
     <t>GOA</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>ReturnStops</t>
   </si>
   <si>
@@ -886,13 +896,58 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>MYQ</t>
+  </si>
+  <si>
+    <t>HBX</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>RJA</t>
+  </si>
+  <si>
+    <t>SXV</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>JAI</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>BUSINESS CLASSIC</t>
+  </si>
+  <si>
+    <t>ECO FLEX</t>
+  </si>
+  <si>
+    <t>ECO VALUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -989,6 +1044,18 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1019,7 +1086,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1052,6 +1119,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1070,6 +1139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4095,7 +4168,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7300,7 +7373,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7752,10 +7825,10 @@
 
 <file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415EC05C-BCA0-42D3-842A-21327413D9BE}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R2"/>
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7887,15 +7960,183 @@
       <c r="R2" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="S2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="S4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -7906,15 +8147,15 @@
 
 <file path=xl/worksheets/sheet187.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C550CF-41F3-401D-9515-1724A8EDC100}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" customWidth="1"/>
     <col min="8" max="8" width="19.453125" customWidth="1"/>
     <col min="10" max="10" width="16.81640625" customWidth="1"/>
@@ -7991,14 +8232,478 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>216</v>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="2"/>
     </row>
+    <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8006,15 +8711,16 @@
 
 <file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D48523F-630A-4A71-B32C-F99F3DC9A478}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
     <col min="6" max="6" width="12.6328125" customWidth="1"/>
     <col min="11" max="11" width="17.26953125" customWidth="1"/>
   </cols>
@@ -8092,6 +8798,181 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8099,15 +8980,17 @@
 
 <file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCBD29B-5EA9-4CDA-A752-CD329147E563}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="F26" activeCellId="1" sqref="G23 F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="13" max="13" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8205,6 +9088,272 @@
         <v>153</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8280,7 +9429,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8498,7 +9647,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8543,25 +9692,25 @@
         <v>111</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>147</v>
@@ -8632,8 +9781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5DBCD2-62E2-4539-80D8-826B6629D182}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8658,7 +9807,7 @@
         <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -8705,10 +9854,10 @@
         <v>184</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>15</v>
@@ -8717,7 +9866,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -8943,7 +10092,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10204,7 +11353,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I2"/>
+      <selection activeCell="E2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10353,7 +11502,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11440,15 +12589,15 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11461,8 +12610,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -11639,8 +12791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/testdatamain1.xlsx
+++ b/src/test/resources/testdata/testdatamain1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripgain-my.sharepoint.com/personal/snehalatha_tripgain_com/Documents/Documents/EntireTestCases_automation/Auto/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="627" documentId="13_ncr:1_{0C0AB5F6-D519-43B2-A2FB-4E633F4E03BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F000DF9D-13A7-494E-94F3-213D1E02B010}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79999084-182A-4669-BC2D-F0D18BD3F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="8170" firstSheet="54" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="183" activeTab="191" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_119" sheetId="2" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="256">
   <si>
     <t>Origin</t>
   </si>
@@ -941,6 +941,57 @@
   </si>
   <si>
     <t>ECO VALUE</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>ZMK</t>
+  </si>
+  <si>
+    <t>Indigo,Air India</t>
+  </si>
+  <si>
+    <t>Air India,Air India Express</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>LKO</t>
+  </si>
+  <si>
+    <t>VNS</t>
+  </si>
+  <si>
+    <t>Mr,Ms,Mrs</t>
+  </si>
+  <si>
+    <t>RPR</t>
+  </si>
+  <si>
+    <t>STV</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>Mr,Ms,Mrs,Mr,Mr,Mr,Mrs,Mr</t>
+  </si>
+  <si>
+    <t>2stops</t>
+  </si>
+  <si>
+    <t>GAU</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>returnIndex</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1137,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1121,6 +1172,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1139,10 +1193,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2172,7 +2222,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2608,7 +2658,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2656,7 +2706,7 @@
         <v>128</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2788,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2780,10 +2830,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +2882,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2874,10 +2924,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2890,7 +2940,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2932,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>130</v>
@@ -2948,7 +2998,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2990,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>130</v>
@@ -7324,15 +7374,15 @@
 
 <file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387FC0C5-A899-4B4E-9AA2-C22C0834DB95}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7346,10 +7396,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7360,7 +7413,10 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7370,18 +7426,19 @@
 
 <file path=xl/worksheets/sheet182.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96A7114-0D79-47B2-82F4-8D9527A26CF4}">
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
     <col min="5" max="5" width="19.453125" customWidth="1"/>
     <col min="6" max="6" width="22.7265625" customWidth="1"/>
     <col min="7" max="7" width="40.81640625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
     <col min="9" max="9" width="32.453125" customWidth="1"/>
     <col min="10" max="10" width="41.54296875" customWidth="1"/>
     <col min="11" max="11" width="41.453125" customWidth="1"/>
@@ -7391,7 +7448,7 @@
     <col min="15" max="15" width="17.6328125" customWidth="1"/>
     <col min="16" max="16" width="43.81640625" customWidth="1"/>
     <col min="17" max="17" width="38" customWidth="1"/>
-    <col min="18" max="18" width="19.1796875" customWidth="1"/>
+    <col min="18" max="18" width="31.6328125" customWidth="1"/>
     <col min="19" max="19" width="34.6328125" customWidth="1"/>
     <col min="20" max="20" width="29.90625" customWidth="1"/>
     <col min="21" max="21" width="36.1796875" customWidth="1"/>
@@ -7536,11 +7593,9 @@
       <c r="V2" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="W2" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W2" s="21"/>
+    </row>
+    <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7574,11 +7629,11 @@
       <c r="K3" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
+      <c r="L3" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="N3" t="s">
         <v>129</v>
@@ -7608,7 +7663,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -7634,7 +7689,7 @@
         <v>129</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>211</v>
@@ -7642,17 +7697,17 @@
       <c r="K4" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
+      <c r="L4" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="N4" t="s">
         <v>129</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>212</v>
@@ -7660,7 +7715,7 @@
       <c r="Q4" t="s">
         <v>212</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="26" t="s">
         <v>187</v>
       </c>
       <c r="S4">
@@ -7675,8 +7730,142 @@
       <c r="V4" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="W4" s="21" t="s">
-        <v>175</v>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>212</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7825,10 +8014,10 @@
 
 <file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415EC05C-BCA0-42D3-842A-21327413D9BE}">
-  <dimension ref="A1:S5"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7960,9 +8149,6 @@
       <c r="R2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S2" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -8019,9 +8205,6 @@
       <c r="R3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S3" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -8078,13 +8261,10 @@
       <c r="R4" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -8136,6 +8316,62 @@
       </c>
       <c r="R5" s="24" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -8150,7 +8386,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8714,7 +8950,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8982,8 +9218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCBD29B-5EA9-4CDA-A752-CD329147E563}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="F26" activeCellId="1" sqref="G23 F26:F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9644,20 +9880,21 @@
 
 <file path=xl/worksheets/sheet191.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05985862-93CE-4A2A-A676-0EC1B41E882B}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="13" max="13" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9712,11 +9949,11 @@
       <c r="R1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+      <c r="S1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9772,6 +10009,342 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9779,10 +10352,10 @@
 
 <file path=xl/worksheets/sheet192.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5DBCD2-62E2-4539-80D8-826B6629D182}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9791,9 +10364,15 @@
     <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.08984375" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+    <col min="20" max="20" width="25.7265625" customWidth="1"/>
+    <col min="21" max="21" width="30.90625" customWidth="1"/>
+    <col min="22" max="22" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -9837,10 +10416,34 @@
         <v>198</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="62.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="U1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>181</v>
       </c>
@@ -9857,10 +10460,10 @@
         <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>6</v>
@@ -9872,10 +10475,10 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>196</v>
@@ -9883,8 +10486,1325 @@
       <c r="N2" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-  </sheetData>
+      <c r="O2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>212</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>18</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>212</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>18</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>212</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>212</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>212</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>212</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12791,7 +14711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -14704,7 +16624,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14820,7 +16740,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/testdatamain1.xlsx
+++ b/src/test/resources/testdata/testdatamain1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79999084-182A-4669-BC2D-F0D18BD3F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567FB427-9D57-4752-92D3-88E6B8881DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="183" activeTab="191" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="186" activeTab="191" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_119" sheetId="2" r:id="rId1"/>
@@ -10354,8 +10354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5DBCD2-62E2-4539-80D8-826B6629D182}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
